--- a/Chat/src/main/webapp/static/files/node/chat.xlsx
+++ b/Chat/src/main/webapp/static/files/node/chat.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="8190"/>
+    <workbookView windowWidth="20475" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="chat表" sheetId="1" r:id="rId1"/>
+    <sheet name="课程表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="35">
   <si>
     <t>chat_user</t>
   </si>
@@ -55,6 +55,72 @@
   </si>
   <si>
     <t>create_date</t>
+  </si>
+  <si>
+    <t>课程表</t>
+  </si>
+  <si>
+    <t>星期一</t>
+  </si>
+  <si>
+    <t>星期二</t>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>星期四</t>
+  </si>
+  <si>
+    <t>星期五</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>早上</t>
+  </si>
+  <si>
+    <t>面试宝典</t>
+  </si>
+  <si>
+    <t>上午</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>java谷粒电商项目</t>
+  </si>
+  <si>
+    <t>中午</t>
+  </si>
+  <si>
+    <t>休息</t>
+  </si>
+  <si>
+    <t>下午</t>
+  </si>
+  <si>
+    <t>c语言</t>
+  </si>
+  <si>
+    <t>2020java面试课程</t>
+  </si>
+  <si>
+    <t>练习</t>
+  </si>
+  <si>
+    <t>晚上</t>
+  </si>
+  <si>
+    <t>根据条件调整，干好了才是兴趣</t>
+  </si>
+  <si>
+    <t>努力让自己经济独立</t>
   </si>
 </sst>
 </file>
@@ -62,12 +128,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +142,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -86,7 +176,107 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,129 +289,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,192 +311,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -430,26 +505,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,16 +560,40 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,174 +617,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1031,8 +1139,8 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1104,14 +1212,458 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35.25" spans="1:9">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="6"/>
+      <c r="B20" s="5">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H16:H20"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="I16:I20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
